--- a/proVidioETG/testDate/VariationProductSkew.xlsx
+++ b/proVidioETG/testDate/VariationProductSkew.xlsx
@@ -109,7 +109,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -130,10 +130,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -151,6 +151,9 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/proVidioETG/testDate/VariationProductSkew.xlsx
+++ b/proVidioETG/testDate/VariationProductSkew.xlsx
@@ -133,7 +133,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
